--- a/test/total_count.xlsx
+++ b/test/total_count.xlsx
@@ -14,9 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>201407</t>
+  </si>
+  <si>
+    <t>201406</t>
+  </si>
+  <si>
+    <t>201412</t>
+  </si>
+  <si>
+    <t>201410</t>
+  </si>
+  <si>
+    <t>201409</t>
+  </si>
+  <si>
+    <t>201408</t>
+  </si>
+  <si>
+    <t>201411</t>
   </si>
   <si>
     <t>001</t>
@@ -367,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,17 +396,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2959399</v>
+        <v>153134</v>
       </c>
     </row>
   </sheetData>

--- a/test/total_count.xlsx
+++ b/test/total_count.xlsx
@@ -427,6 +427,27 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>2959399</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>534688</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>329408</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>486844</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>539679</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>464546</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>451100</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>153134</v>
       </c>
     </row>

--- a/test/total_count.xlsx
+++ b/test/total_count.xlsx
@@ -388,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,58 +396,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2959399</v>
-      </c>
-      <c r="C2" s="2" t="n">
+        <v>2964017</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>534688</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>329408</v>
-      </c>
       <c r="E2" s="2" t="n">
+        <v>334026</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>486844</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>539679</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>464546</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>451100</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>153134</v>
       </c>
     </row>

--- a/test/total_count.xlsx
+++ b/test/total_count.xlsx
@@ -427,13 +427,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2964017</v>
+        <v>2959399</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>534688</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>334026</v>
+        <v>329408</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>486844</v>

--- a/test/total_count.xlsx
+++ b/test/total_count.xlsx
@@ -388,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,58 +396,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2959399</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>534688</v>
+      </c>
       <c r="D2" s="2" t="n">
-        <v>534688</v>
+        <v>329408</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>329408</v>
+        <v>486844</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>486844</v>
+        <v>539679</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>539679</v>
+        <v>464546</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>464546</v>
+        <v>451100</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>451100</v>
-      </c>
-      <c r="J2" s="2" t="n">
         <v>153134</v>
       </c>
     </row>
